--- a/biology/Zoologie/James_Bulwer/James_Bulwer.xlsx
+++ b/biology/Zoologie/James_Bulwer/James_Bulwer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le révérend James Bulwer est un collectionneur, un naturaliste et un conchyliologiste britannique, né le 21 mars 1794 à Aylsham, Norfolk et mort le 11 juin 1879.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait ses études au Jesus College de l’université de Cambridge. Durant ses études, il prend des leçons de dessin auprès du peintre de paysage John Sell Cotman (1782-1842). Ses intérêts pour les mollusques le conduisent à devenir membre de la Linnean Society of London ; l’un de ses trois parrains n’est autre que William Elford Leach (1790-1836).
 En 1818, il devient diacre et en 1822 prêtre. En 1823, il reçoit la cure de Booterstown à Dublin, part à Bristol en 1831 et à la chapelle St James de Piccadilly. Il voyage plusieurs fois en Espagne, au Portugal et dans l’archipel de Madère, parfois en compagnie du philosophe et voyageur Sir Alfred Comyn Lyall (1835-1911).
@@ -545,7 +559,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Barbara Mearns et Richard Mearns (1988). Biographies for Birdwatchers: The Lives of Those Commemorated in Western Palearctic Bird Names, Academic Press (Londres) : 490 p.  (ISBN 0-12-487422-3)</t>
         </is>
